--- a/2020-10-29-30MC.xlsx
+++ b/2020-10-29-30MC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be534843b9fe5053/桌面/202407/layout论文/data-layout/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_8638A0E00E6E091501C80AD68B1567EC6137BC0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE2F7D4-58EC-4459-8DA8-290BD1A5D8DA}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="14790" windowHeight="7605" tabRatio="520" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="之前计算的数据" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>工位编号</t>
   </si>
@@ -119,12 +125,44 @@
     <t>width of recharge area</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>MC order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of machines in this MC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>length of machine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>width of machine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test MC order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>length of workshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>width of workshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,12 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,50 +794,50 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -820,24 +852,32 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -879,7 +919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,9 +951,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,6 +1003,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1120,31 +1196,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.3984375" style="1" customWidth="1"/>
     <col min="11" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="18.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="58.25" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.73046875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="58.265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1304,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1342,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1377,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1412,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1438,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1464,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1490,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1516,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1542,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -1559,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -1576,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -1593,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -1610,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -1627,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -1644,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -1661,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -1678,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -1695,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -1706,7 +1782,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1714,7 +1790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1729,672 +1805,697 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="27.1328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" style="8" customWidth="1"/>
+    <col min="3" max="5" width="9.06640625" style="8"/>
+    <col min="6" max="6" width="22.73046875" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>5.5</v>
       </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="12">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8">
         <v>100</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
         <v>5.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>4.2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="8">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5">
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="E9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5">
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>8.4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>14</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <v>12</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5">
+      <c r="D16" s="8">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="D17" s="8">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5">
+      <c r="D18" s="8">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>11</v>
       </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="E19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>11</v>
       </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="E20" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>8</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>9</v>
       </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
         <v>23</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="8">
         <v>9</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>24</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>12</v>
       </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="E25" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
         <v>25</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>8</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>9</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
         <v>27</v>
       </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="D28" s="8">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
         <v>28</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <v>11</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
         <v>29</v>
       </c>
-      <c r="D30" s="5">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="D30" s="12">
+        <v>7</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
         <v>30</v>
       </c>
-      <c r="D31" s="5">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5"/>
-      <c r="C32">
+      <c r="D31" s="12">
+        <v>7</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="C32" s="8">
         <v>31</v>
       </c>
-      <c r="D32" s="5">
-        <v>7</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="C33">
+      <c r="D32" s="12">
+        <v>7</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="8">
         <v>32</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <v>11</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="C34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="8">
         <v>33</v>
       </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="C35">
+      <c r="D34" s="8">
+        <v>7</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="8">
         <v>34</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="8">
         <v>6</v>
       </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36">
+      <c r="E35" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="8">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="8">
         <v>9</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="C37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="8">
         <v>36</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="8">
         <v>6</v>
       </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="C38" s="4">
+      <c r="E37" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="8">
         <v>37</v>
       </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39">
+      <c r="D38" s="8">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="8">
         <v>38</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <v>9</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="C40" s="4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="8">
         <v>39</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <v>8</v>
       </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="9" t="s">
+      <c r="E40" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="9" t="s">
+      <c r="B47" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="4"/>
+      <c r="B48" s="11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2404,687 +2505,852 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F24" sqref="A1:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>5.5</v>
       </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8">
         <v>100</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
         <v>5.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>4.2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5">
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>9</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5">
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>9</v>
       </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5">
+      <c r="D15" s="8">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
         <v>17</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>11</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>12</v>
       </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="E19" s="8">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>12</v>
       </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="E20" s="8">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>8</v>
       </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="E21" s="8">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>8</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>11</v>
       </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
         <v>23</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>11</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>24</v>
       </c>
-      <c r="D25" s="4">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="D25" s="8">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
         <v>25</v>
       </c>
-      <c r="D26" s="5">
-        <v>5</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5">
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
         <v>26</v>
       </c>
-      <c r="D27" s="5">
-        <v>5</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="D27" s="12">
+        <v>5</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
         <v>27</v>
       </c>
-      <c r="D28" s="5">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5">
+      <c r="D28" s="12">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
         <v>28</v>
       </c>
-      <c r="D29" s="5">
-        <v>5</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="D29" s="12">
+        <v>5</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
         <v>29</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>6</v>
       </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5">
+      <c r="E30" s="8">
+        <v>4</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="8">
+        <v>7</v>
+      </c>
+      <c r="E31" s="8">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8">
         <v>31</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>11</v>
       </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="C33">
+      <c r="E32" s="8">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8">
         <v>32</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <v>9</v>
       </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="C34">
+      <c r="E33" s="8">
+        <v>4</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <v>11</v>
       </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="C35">
+      <c r="E34" s="8">
+        <v>5</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8">
         <v>34</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="8">
         <v>6</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="8">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8">
         <v>35</v>
       </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="C37">
+      <c r="D36" s="8">
+        <v>7</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8">
         <v>36</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="8">
         <v>8</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="8">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="C38">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8">
         <v>37</v>
       </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39">
+      <c r="D38" s="8">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8">
+        <v>4</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8">
         <v>38</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <v>11</v>
       </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="C40">
+      <c r="E39" s="8">
+        <v>5</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8">
         <v>39</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <v>8</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="8">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="C41">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8">
         <v>40</v>
       </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="8">
+        <v>5</v>
+      </c>
+      <c r="E41" s="8">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="C42" s="4">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8">
         <v>41</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="8">
         <v>11</v>
       </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="9" t="s">
+      <c r="E42" s="8">
+        <v>5</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9" t="s">
+      <c r="B44" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="8"/>
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3093,690 +3359,854 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="A1:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>5.5</v>
       </c>
-      <c r="F2" s="5">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
         <v>100</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5">
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
+      <c r="E10" s="8">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="D11" s="8">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>6.7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="D14" s="8">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <v>11</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>8</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
         <v>17</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>8</v>
       </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5">
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>8</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>8</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="E21" s="8">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>12</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>12</v>
       </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
         <v>23</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>12</v>
       </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="E24" s="8">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="D25" s="8">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
         <v>25</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>11</v>
       </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5">
+      <c r="E26" s="8">
+        <v>5</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>8</v>
       </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
         <v>27</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <v>8</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="E28" s="8">
+        <v>3</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
         <v>28</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <v>8</v>
       </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5">
+      <c r="E29" s="8">
+        <v>3</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
         <v>29</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>11</v>
       </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="E30" s="8">
+        <v>5</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
         <v>30</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <v>8</v>
       </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32">
+      <c r="E31" s="8">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
         <v>31</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>9</v>
       </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="C33">
+      <c r="E32" s="8">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
         <v>32</v>
       </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="8">
+        <v>7</v>
+      </c>
+      <c r="E33" s="8">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="C34">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
         <v>33</v>
       </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="C35">
+      <c r="D34" s="8">
+        <v>4</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
         <v>34</v>
       </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36">
+      <c r="D35" s="8">
+        <v>4</v>
+      </c>
+      <c r="E35" s="8">
+        <v>3</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="8">
         <v>5.5</v>
       </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="C37">
+      <c r="E36" s="8">
+        <v>4</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
         <v>36</v>
       </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="C38">
+      <c r="D37" s="8">
+        <v>5</v>
+      </c>
+      <c r="E37" s="8">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
         <v>37</v>
       </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="8">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
         <v>38</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="C40">
+      <c r="D39" s="8">
+        <v>4</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8">
         <v>39</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <v>6</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="8">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="C41" s="4">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
         <v>40</v>
       </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="C42">
+      <c r="D41" s="8">
+        <v>5</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8">
         <v>41</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="8">
         <v>9</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="9" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="9" t="s">
+      <c r="B48" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="B49" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
     </row>
   </sheetData>
@@ -3786,680 +4216,705 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12" style="8" customWidth="1"/>
+    <col min="4" max="5" width="9.06640625" style="8"/>
+    <col min="6" max="6" width="23.1328125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>5.5</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
         <v>100</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
-        <v>7</v>
-      </c>
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="D9" s="12">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
-        <v>7</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
+      <c r="D10" s="12">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="5">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="D11" s="12">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <v>9</v>
       </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
         <v>12</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <v>11</v>
       </c>
-      <c r="E13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6">
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
         <v>13</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>14</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <v>9</v>
       </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5">
+      <c r="E15" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <v>11</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>16</v>
       </c>
-      <c r="D17" s="11">
-        <v>7</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="D17" s="12">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
         <v>17</v>
       </c>
-      <c r="D18" s="11">
-        <v>7</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6">
+      <c r="D18" s="12">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
         <v>18</v>
       </c>
-      <c r="D19" s="11">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="D19" s="12">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
         <v>19</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>11</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
         <v>20</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <v>11</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
         <v>21</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <v>11</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
         <v>22</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="8">
         <v>9</v>
       </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
         <v>23</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="8">
         <v>12</v>
       </c>
-      <c r="E24" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6">
+      <c r="E24" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>24</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="8">
         <v>11</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
         <v>25</v>
       </c>
-      <c r="D26" s="11">
-        <v>5</v>
-      </c>
-      <c r="E26" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5">
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
         <v>26</v>
       </c>
-      <c r="D27" s="11">
-        <v>5</v>
-      </c>
-      <c r="E27" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="D27" s="12">
+        <v>5</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
         <v>27</v>
       </c>
-      <c r="D28" s="11">
-        <v>5</v>
-      </c>
-      <c r="E28" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="D28" s="12">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
         <v>28</v>
       </c>
-      <c r="D29" s="4">
-        <v>7</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6">
+      <c r="D29" s="8">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
         <v>29</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="8">
         <v>6</v>
       </c>
-      <c r="E30" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="E30" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
         <v>30</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="8">
         <v>11</v>
       </c>
-      <c r="E31" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32">
+      <c r="E31" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="8">
         <v>31</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="8">
         <v>8</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="C33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="8">
         <v>32</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="8">
         <v>6</v>
       </c>
-      <c r="E33" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="C34">
+      <c r="E33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="8">
         <v>33</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="8">
         <v>9</v>
       </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="C35">
+      <c r="E34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="8">
         <v>34</v>
       </c>
-      <c r="D35" s="4">
-        <v>7</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="8">
+        <v>7</v>
+      </c>
+      <c r="E35" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="C36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="8">
         <v>35</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="8">
         <v>9</v>
       </c>
-      <c r="E36" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="C37">
+      <c r="E36" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="8">
         <v>36</v>
       </c>
-      <c r="D37" s="4">
-        <v>5</v>
-      </c>
-      <c r="E37" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="C38">
+      <c r="D37" s="8">
+        <v>5</v>
+      </c>
+      <c r="E37" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="8">
         <v>37</v>
       </c>
-      <c r="D38" s="4">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39">
+      <c r="D38" s="8">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="8">
         <v>38</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="8">
         <v>8</v>
       </c>
-      <c r="E39" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="C40" s="4">
+      <c r="E39" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="8">
         <v>39</v>
       </c>
-      <c r="D40" s="4">
-        <v>5</v>
-      </c>
-      <c r="E40" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="C41">
+      <c r="D40" s="8">
+        <v>5</v>
+      </c>
+      <c r="E40" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="8">
         <v>40</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="8">
         <v>9</v>
       </c>
-      <c r="E41" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9" t="s">
+      <c r="E41" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="9" t="s">
+      <c r="B45" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="4"/>
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4468,685 +4923,709 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.125" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="37.1328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>5.5</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
         <v>100</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11">
         <v>9</v>
       </c>
-      <c r="E3" s="9">
-        <v>4</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="11">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
         <v>9</v>
       </c>
-      <c r="E4" s="9">
-        <v>4</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="11">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
         <v>15</v>
       </c>
-      <c r="E5" s="10">
-        <v>7</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="11">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
         <v>15</v>
       </c>
-      <c r="E6" s="10">
-        <v>7</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="11">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>15</v>
       </c>
-      <c r="E7" s="10">
-        <v>7</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="11">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11">
         <v>15</v>
       </c>
-      <c r="E8" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
+      <c r="E8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>5.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
         <v>13</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>9</v>
       </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
         <v>14</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>5.5</v>
       </c>
-      <c r="E15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5">
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
         <v>15</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>5.5</v>
       </c>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
         <v>16</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>6</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>9</v>
       </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6">
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
         <v>18</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>11</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
         <v>19</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="11">
         <v>8</v>
       </c>
-      <c r="E20" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="E20" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
         <v>20</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <v>8</v>
       </c>
-      <c r="E21" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="E21" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
         <v>21</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <v>8</v>
       </c>
-      <c r="E22" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="E22" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
         <v>22</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>9</v>
       </c>
-      <c r="E23" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="E23" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
         <v>23</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>11</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
         <v>24</v>
       </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>25</v>
       </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5">
+      <c r="D26" s="7">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
         <v>26</v>
       </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="D27" s="7">
+        <v>5</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7">
         <v>27</v>
       </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
         <v>28</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="7">
         <v>6</v>
       </c>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6">
+      <c r="E29" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7">
         <v>29</v>
       </c>
-      <c r="D30" s="1">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="D30" s="7">
+        <v>7</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
         <v>30</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="7">
         <v>9</v>
       </c>
-      <c r="E31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="1">
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="7">
         <v>31</v>
       </c>
-      <c r="D32" s="1">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="C33" s="1">
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="7">
         <v>32</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="7">
         <v>6</v>
       </c>
-      <c r="E33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="C34" s="1">
+      <c r="E33" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="7">
         <v>33</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <v>8</v>
       </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="C35" s="1">
+      <c r="E34" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="7">
         <v>34</v>
       </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36" s="1">
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="7">
         <v>35</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="7">
         <v>8.4</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="C37" s="1">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="7">
         <v>36</v>
       </c>
-      <c r="D37" s="1">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="C38" s="1">
+      <c r="D37" s="7">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="7">
         <v>37</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="7">
         <v>6</v>
       </c>
-      <c r="E38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39" s="1">
+      <c r="E38" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="7">
         <v>38</v>
       </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="C40" s="1">
+      <c r="D39" s="7">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="7">
         <v>39</v>
       </c>
-      <c r="D40" s="1">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="7">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="C41" s="1">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="7">
         <v>40</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="7">
         <v>9</v>
       </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="9" t="s">
+      <c r="E41" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="9" t="s">
+      <c r="B43" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="8"/>
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
